--- a/BalanceSheet/SYF_bal.xlsx
+++ b/BalanceSheet/SYF_bal.xlsx
@@ -4061,7 +4061,7 @@
         <v>3544000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>7719000000.0</v>
+        <v>11927000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>8902000000.0</v>
@@ -4181,7 +4181,7 @@
         <v>17248000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>19866000000.0</v>
+        <v>24074000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>20363000000.0</v>
